--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
   <si>
     <t xml:space="preserve">passed</t>
   </si>
@@ -959,7 +959,7 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.16"/>
   </cols>
@@ -1009,11 +1009,11 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.5"/>
@@ -1099,7 +1099,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="8" t="n">
         <f aca="false">COUNTIF(L$8:L$37,"passed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="8" t="n">
@@ -1320,11 +1320,17 @@
         <v>22</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
+      <c r="H8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22" t="n">
+        <v>1</v>
+      </c>
       <c r="J8" s="21"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="L8" s="24" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="24"/>
       <c r="O8" s="5"/>
@@ -1360,7 +1366,9 @@
       <c r="I9" s="25"/>
       <c r="J9" s="21"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="L9" s="24" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="24"/>
       <c r="O9" s="5"/>
@@ -2398,7 +2406,7 @@
       </c>
       <c r="E38" s="33" t="n">
         <f aca="false">COUNT(I8:I37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
